--- a/DataModel/WoW.xlsx
+++ b/DataModel/WoW.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AG40" sqref="AG40"/>
     </sheetView>
   </sheetViews>
@@ -515,8 +515,8 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.28515625" bestFit="1" customWidth="1"/>
